--- a/ResultadoEleicoesDistritos/BRAGANÇA_MOGADOURO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_MOGADOURO.xlsx
@@ -597,64 +597,64 @@
         <v>2892</v>
       </c>
       <c r="H2" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" t="n">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="J2" t="n">
-        <v>1186</v>
+        <v>1216</v>
       </c>
       <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>310</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>227</v>
+      </c>
+      <c r="O2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>352</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21</v>
-      </c>
-      <c r="N2" t="n">
-        <v>216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
       <c r="R2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T2" t="n">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="U2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
